--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyvin\OneDrive\Documents\GitHub\pyarchive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F88023F-CC5E-4E89-AE11-251F22E9A28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06505039-444E-45FA-9DD6-2AED417A33A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{8B8558C1-101D-4A9F-840D-31D3CDBD0170}"/>
+    <workbookView xWindow="4155" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{8B8558C1-101D-4A9F-840D-31D3CDBD0170}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -35,16 +35,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>{{begin}}</t>
-  </si>
-  <si>
-    <t>{{end}}</t>
-  </si>
-  <si>
     <t>{{database}}</t>
   </si>
   <si>
     <t>Database</t>
+  </si>
+  <si>
+    <t>[[begin]]</t>
+  </si>
+  <si>
+    <t>[[end]]</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDE71FC-7EA2-4D0E-83B7-E8853271B2E4}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -421,22 +423,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
